--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.459400265606149</v>
+        <v>0.7534920000000001</v>
       </c>
       <c r="H2">
-        <v>0.459400265606149</v>
+        <v>1.506984</v>
       </c>
       <c r="I2">
-        <v>0.02009972903526799</v>
+        <v>0.02928944129956266</v>
       </c>
       <c r="J2">
-        <v>0.02009972903526799</v>
+        <v>0.01999218558591364</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2356578691205</v>
+        <v>70.2375145</v>
       </c>
       <c r="N2">
-        <v>70.2356578691205</v>
+        <v>140.475029</v>
       </c>
       <c r="O2">
-        <v>0.5972432053378556</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P2">
-        <v>0.5972432053378556</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q2">
-        <v>32.26627988009657</v>
+        <v>52.923405275634</v>
       </c>
       <c r="R2">
-        <v>32.26627988009657</v>
+        <v>211.693621102536</v>
       </c>
       <c r="S2">
-        <v>0.01200442659544582</v>
+        <v>0.01720823226798909</v>
       </c>
       <c r="T2">
-        <v>0.01200442659544582</v>
+        <v>0.009809052889349404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.459400265606149</v>
+        <v>0.7534920000000001</v>
       </c>
       <c r="H3">
-        <v>0.459400265606149</v>
+        <v>1.506984</v>
       </c>
       <c r="I3">
-        <v>0.02009972903526799</v>
+        <v>0.02928944129956266</v>
       </c>
       <c r="J3">
-        <v>0.02009972903526799</v>
+        <v>0.01999218558591364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61267534780753</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N3">
-        <v>2.61267534780753</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.0222166723651891</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P3">
-        <v>0.0222166723651891</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q3">
-        <v>1.200263748725417</v>
+        <v>2.113394863928</v>
       </c>
       <c r="R3">
-        <v>1.200263748725417</v>
+        <v>12.680369183568</v>
       </c>
       <c r="S3">
-        <v>0.0004465490946056275</v>
+        <v>0.0006871778091949799</v>
       </c>
       <c r="T3">
-        <v>0.0004465490946056275</v>
+        <v>0.0005875586204737313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.459400265606149</v>
+        <v>0.7534920000000001</v>
       </c>
       <c r="H4">
-        <v>0.459400265606149</v>
+        <v>1.506984</v>
       </c>
       <c r="I4">
-        <v>0.02009972903526799</v>
+        <v>0.02928944129956266</v>
       </c>
       <c r="J4">
-        <v>0.02009972903526799</v>
+        <v>0.01999218558591364</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>43.2917111739136</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>43.2917111739136</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.3681275456157778</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P4">
-        <v>0.3681275456157778</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q4">
-        <v>19.88822361184059</v>
+        <v>0.08007685997200001</v>
       </c>
       <c r="R4">
-        <v>19.88822361184059</v>
+        <v>0.4804611598320001</v>
       </c>
       <c r="S4">
-        <v>0.007399263917295391</v>
+        <v>2.603727402862035E-05</v>
       </c>
       <c r="T4">
-        <v>0.007399263917295391</v>
+        <v>2.226268747978721E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.459400265606149</v>
+        <v>0.7534920000000001</v>
       </c>
       <c r="H5">
-        <v>0.459400265606149</v>
+        <v>1.506984</v>
       </c>
       <c r="I5">
-        <v>0.02009972903526799</v>
+        <v>0.02928944129956266</v>
       </c>
       <c r="J5">
-        <v>0.02009972903526799</v>
+        <v>0.01999218558591364</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45971604408666</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N5">
-        <v>1.45971604408666</v>
+        <v>132.89777</v>
       </c>
       <c r="O5">
-        <v>0.01241257668117757</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P5">
-        <v>0.01241257668117757</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q5">
-        <v>0.6705939383629687</v>
+        <v>33.37913550428001</v>
       </c>
       <c r="R5">
-        <v>0.6705939383629687</v>
+        <v>200.27481302568</v>
       </c>
       <c r="S5">
-        <v>0.0002494894279211553</v>
+        <v>0.01085334387821004</v>
       </c>
       <c r="T5">
-        <v>0.0002494894279211553</v>
+        <v>0.009279950067186621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.3879239649821</v>
+        <v>0.7534920000000001</v>
       </c>
       <c r="H6">
-        <v>21.3879239649821</v>
+        <v>1.506984</v>
       </c>
       <c r="I6">
-        <v>0.9357667126200739</v>
+        <v>0.02928944129956266</v>
       </c>
       <c r="J6">
-        <v>0.9357667126200739</v>
+        <v>0.01999218558591364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.2356578691205</v>
+        <v>2.1006075</v>
       </c>
       <c r="N6">
-        <v>70.2356578691205</v>
+        <v>4.201215</v>
       </c>
       <c r="O6">
-        <v>0.5972432053378556</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P6">
-        <v>0.5972432053378556</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q6">
-        <v>1502.194910135246</v>
+        <v>1.58279094639</v>
       </c>
       <c r="R6">
-        <v>1502.194910135246</v>
+        <v>6.331163785560001</v>
       </c>
       <c r="S6">
-        <v>0.558880310893681</v>
+        <v>0.0005146500701399377</v>
       </c>
       <c r="T6">
-        <v>0.558880310893681</v>
+        <v>0.0002933613214240949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.3879239649821</v>
+        <v>23.115321</v>
       </c>
       <c r="H7">
-        <v>21.3879239649821</v>
+        <v>69.345963</v>
       </c>
       <c r="I7">
-        <v>0.9357667126200739</v>
+        <v>0.8985295630876612</v>
       </c>
       <c r="J7">
-        <v>0.9357667126200739</v>
+        <v>0.9199682026683099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.61267534780753</v>
+        <v>70.2375145</v>
       </c>
       <c r="N7">
-        <v>2.61267534780753</v>
+        <v>140.475029</v>
       </c>
       <c r="O7">
-        <v>0.0222166723651891</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P7">
-        <v>0.0222166723651891</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q7">
-        <v>55.87970168409062</v>
+        <v>1623.562693909654</v>
       </c>
       <c r="R7">
-        <v>55.87970168409062</v>
+        <v>9741.376163457928</v>
       </c>
       <c r="S7">
-        <v>0.02078962246453025</v>
+        <v>0.5279071479420162</v>
       </c>
       <c r="T7">
-        <v>0.02078962246453025</v>
+        <v>0.4513772002422499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.3879239649821</v>
+        <v>23.115321</v>
       </c>
       <c r="H8">
-        <v>21.3879239649821</v>
+        <v>69.345963</v>
       </c>
       <c r="I8">
-        <v>0.9357667126200739</v>
+        <v>0.8985295630876612</v>
       </c>
       <c r="J8">
-        <v>0.9357667126200739</v>
+        <v>0.9199682026683099</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.2917111739136</v>
+        <v>2.804800666666666</v>
       </c>
       <c r="N8">
-        <v>43.2917111739136</v>
+        <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.3681275456157778</v>
+        <v>0.02346162230159168</v>
       </c>
       <c r="P8">
-        <v>0.3681275456157778</v>
+        <v>0.02938941407625393</v>
       </c>
       <c r="Q8">
-        <v>925.91982690163</v>
+        <v>64.833867751014</v>
       </c>
       <c r="R8">
-        <v>925.91982690163</v>
+        <v>583.5048097591259</v>
       </c>
       <c r="S8">
-        <v>0.3444815031857726</v>
+        <v>0.0210809612359769</v>
       </c>
       <c r="T8">
-        <v>0.3444815031857726</v>
+        <v>0.02703732644520606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.3879239649821</v>
+        <v>23.115321</v>
       </c>
       <c r="H9">
-        <v>21.3879239649821</v>
+        <v>69.345963</v>
       </c>
       <c r="I9">
-        <v>0.9357667126200739</v>
+        <v>0.8985295630876612</v>
       </c>
       <c r="J9">
-        <v>0.9357667126200739</v>
+        <v>0.9199682026683099</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.45971604408666</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N9">
-        <v>1.45971604408666</v>
+        <v>0.318823</v>
       </c>
       <c r="O9">
-        <v>0.01241257668117757</v>
+        <v>0.0008889645166775211</v>
       </c>
       <c r="P9">
-        <v>0.01241257668117757</v>
+        <v>0.001113569468636453</v>
       </c>
       <c r="Q9">
-        <v>31.22029576138994</v>
+        <v>2.456565329061</v>
       </c>
       <c r="R9">
-        <v>31.22029576138994</v>
+        <v>22.109087961549</v>
       </c>
       <c r="S9">
-        <v>0.01161527607609013</v>
+        <v>0.0007987608987706869</v>
       </c>
       <c r="T9">
-        <v>0.01161527607609013</v>
+        <v>0.001024448502607783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.00871849516503</v>
+        <v>23.115321</v>
       </c>
       <c r="H10">
-        <v>1.00871849516503</v>
+        <v>69.345963</v>
       </c>
       <c r="I10">
-        <v>0.04413355834465807</v>
+        <v>0.8985295630876612</v>
       </c>
       <c r="J10">
-        <v>0.04413355834465807</v>
+        <v>0.9199682026683099</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>70.2356578691205</v>
+        <v>44.29925666666667</v>
       </c>
       <c r="N10">
-        <v>70.2356578691205</v>
+        <v>132.89777</v>
       </c>
       <c r="O10">
-        <v>0.5972432053378556</v>
+        <v>0.3705548278372964</v>
       </c>
       <c r="P10">
-        <v>0.5972432053378556</v>
+        <v>0.4641788676534301</v>
       </c>
       <c r="Q10">
-        <v>70.84800711266513</v>
+        <v>1023.99153791139</v>
       </c>
       <c r="R10">
-        <v>70.84800711266513</v>
+        <v>9215.92384120251</v>
       </c>
       <c r="S10">
-        <v>0.02635846784872885</v>
+        <v>0.3329544675566695</v>
       </c>
       <c r="T10">
-        <v>0.02635846784872885</v>
+        <v>0.4270297985917375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.00871849516503</v>
+        <v>23.115321</v>
       </c>
       <c r="H11">
-        <v>1.00871849516503</v>
+        <v>69.345963</v>
       </c>
       <c r="I11">
-        <v>0.04413355834465807</v>
+        <v>0.8985295630876612</v>
       </c>
       <c r="J11">
-        <v>0.04413355834465807</v>
+        <v>0.9199682026683099</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.61267534780753</v>
+        <v>2.1006075</v>
       </c>
       <c r="N11">
-        <v>2.61267534780753</v>
+        <v>4.201215</v>
       </c>
       <c r="O11">
-        <v>0.0222166723651891</v>
+        <v>0.01757118085238527</v>
       </c>
       <c r="P11">
-        <v>0.0222166723651891</v>
+        <v>0.01467379942845245</v>
       </c>
       <c r="Q11">
-        <v>2.635453945195184</v>
+        <v>48.5562166575075</v>
       </c>
       <c r="R11">
-        <v>2.635453945195184</v>
+        <v>291.337299945045</v>
       </c>
       <c r="S11">
-        <v>0.0009805008060532259</v>
+        <v>0.01578822545422801</v>
       </c>
       <c r="T11">
-        <v>0.0009805008060532259</v>
+        <v>0.01349942888650868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.00871849516503</v>
+        <v>0.254607</v>
       </c>
       <c r="H12">
-        <v>1.00871849516503</v>
+        <v>0.763821</v>
       </c>
       <c r="I12">
-        <v>0.04413355834465807</v>
+        <v>0.0098969820262959</v>
       </c>
       <c r="J12">
-        <v>0.04413355834465807</v>
+        <v>0.01013312097966411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.2917111739136</v>
+        <v>70.2375145</v>
       </c>
       <c r="N12">
-        <v>43.2917111739136</v>
+        <v>140.475029</v>
       </c>
       <c r="O12">
-        <v>0.3681275456157778</v>
+        <v>0.5875234044920492</v>
       </c>
       <c r="P12">
-        <v>0.3681275456157778</v>
+        <v>0.4906443493732269</v>
       </c>
       <c r="Q12">
-        <v>43.66914974846924</v>
+        <v>17.8829628543015</v>
       </c>
       <c r="R12">
-        <v>43.66914974846924</v>
+        <v>107.297777125809</v>
       </c>
       <c r="S12">
-        <v>0.0162467785127097</v>
+        <v>0.005814708574285987</v>
       </c>
       <c r="T12">
-        <v>0.0162467785127097</v>
+        <v>0.004971758550187493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,1177 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.254607</v>
+      </c>
+      <c r="H13">
+        <v>0.763821</v>
+      </c>
+      <c r="I13">
+        <v>0.0098969820262959</v>
+      </c>
+      <c r="J13">
+        <v>0.01013312097966411</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P13">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q13">
+        <v>0.7141218833379999</v>
+      </c>
+      <c r="R13">
+        <v>6.427096950041999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002321992542265959</v>
+      </c>
+      <c r="T13">
+        <v>0.0002978064883561244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.254607</v>
+      </c>
+      <c r="H14">
+        <v>0.763821</v>
+      </c>
+      <c r="I14">
+        <v>0.0098969820262959</v>
+      </c>
+      <c r="J14">
+        <v>0.01013312097966411</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.318823</v>
+      </c>
+      <c r="O14">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P14">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q14">
+        <v>0.027058189187</v>
+      </c>
+      <c r="R14">
+        <v>0.243523702683</v>
+      </c>
+      <c r="S14">
+        <v>8.798065843572247E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.128393414495346E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.254607</v>
+      </c>
+      <c r="H15">
+        <v>0.763821</v>
+      </c>
+      <c r="I15">
+        <v>0.0098969820262959</v>
+      </c>
+      <c r="J15">
+        <v>0.01013312097966411</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N15">
+        <v>132.89777</v>
+      </c>
+      <c r="O15">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P15">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q15">
+        <v>11.27890084213</v>
+      </c>
+      <c r="R15">
+        <v>101.51010757917</v>
+      </c>
+      <c r="S15">
+        <v>0.003667374470862894</v>
+      </c>
+      <c r="T15">
+        <v>0.004703580622135704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.00871849516503</v>
-      </c>
-      <c r="H13">
-        <v>1.00871849516503</v>
-      </c>
-      <c r="I13">
-        <v>0.04413355834465807</v>
-      </c>
-      <c r="J13">
-        <v>0.04413355834465807</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="N13">
-        <v>1.45971604408666</v>
-      </c>
-      <c r="O13">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="P13">
-        <v>0.01241257668117757</v>
-      </c>
-      <c r="Q13">
-        <v>1.472442571359346</v>
-      </c>
-      <c r="R13">
-        <v>1.472442571359346</v>
-      </c>
-      <c r="S13">
-        <v>0.0005478111771662926</v>
-      </c>
-      <c r="T13">
-        <v>0.0005478111771662926</v>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.254607</v>
+      </c>
+      <c r="H16">
+        <v>0.763821</v>
+      </c>
+      <c r="I16">
+        <v>0.0098969820262959</v>
+      </c>
+      <c r="J16">
+        <v>0.01013312097966411</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.1006075</v>
+      </c>
+      <c r="N16">
+        <v>4.201215</v>
+      </c>
+      <c r="O16">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P16">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q16">
+        <v>0.5348293737524999</v>
+      </c>
+      <c r="R16">
+        <v>3.208976242515</v>
+      </c>
+      <c r="S16">
+        <v>0.0001739016610768516</v>
+      </c>
+      <c r="T16">
+        <v>0.0001486913848398348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.279204</v>
+      </c>
+      <c r="H17">
+        <v>0.837612</v>
+      </c>
+      <c r="I17">
+        <v>0.01085310682608852</v>
+      </c>
+      <c r="J17">
+        <v>0.01111205862370688</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>70.2375145</v>
+      </c>
+      <c r="N17">
+        <v>140.475029</v>
+      </c>
+      <c r="O17">
+        <v>0.5875234044920492</v>
+      </c>
+      <c r="P17">
+        <v>0.4906443493732269</v>
+      </c>
+      <c r="Q17">
+        <v>19.610594998458</v>
+      </c>
+      <c r="R17">
+        <v>117.663569990748</v>
+      </c>
+      <c r="S17">
+        <v>0.006376454271779428</v>
+      </c>
+      <c r="T17">
+        <v>0.00545206877362582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.279204</v>
+      </c>
+      <c r="H18">
+        <v>0.837612</v>
+      </c>
+      <c r="I18">
+        <v>0.01085310682608852</v>
+      </c>
+      <c r="J18">
+        <v>0.01111205862370688</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N18">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P18">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q18">
+        <v>0.783111565336</v>
+      </c>
+      <c r="R18">
+        <v>7.048004088023999</v>
+      </c>
+      <c r="S18">
+        <v>0.0002546314931525154</v>
+      </c>
+      <c r="T18">
+        <v>0.00032657689213173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.279204</v>
+      </c>
+      <c r="H19">
+        <v>0.837612</v>
+      </c>
+      <c r="I19">
+        <v>0.01085310682608852</v>
+      </c>
+      <c r="J19">
+        <v>0.01111205862370688</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.318823</v>
+      </c>
+      <c r="O19">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P19">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q19">
+        <v>0.02967221896400001</v>
+      </c>
+      <c r="R19">
+        <v>0.267049970676</v>
+      </c>
+      <c r="S19">
+        <v>9.64802686410329E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.237404921705839E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.279204</v>
+      </c>
+      <c r="H20">
+        <v>0.837612</v>
+      </c>
+      <c r="I20">
+        <v>0.01085310682608852</v>
+      </c>
+      <c r="J20">
+        <v>0.01111205862370688</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N20">
+        <v>132.89777</v>
+      </c>
+      <c r="O20">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P20">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q20">
+        <v>12.36852965836</v>
+      </c>
+      <c r="R20">
+        <v>111.31676692524</v>
+      </c>
+      <c r="S20">
+        <v>0.00402167113144102</v>
+      </c>
+      <c r="T20">
+        <v>0.005157982789250795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.279204</v>
+      </c>
+      <c r="H21">
+        <v>0.837612</v>
+      </c>
+      <c r="I21">
+        <v>0.01085310682608852</v>
+      </c>
+      <c r="J21">
+        <v>0.01111205862370688</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.1006075</v>
+      </c>
+      <c r="N21">
+        <v>4.201215</v>
+      </c>
+      <c r="O21">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P21">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q21">
+        <v>0.5864980164300001</v>
+      </c>
+      <c r="R21">
+        <v>3.51898809858</v>
+      </c>
+      <c r="S21">
+        <v>0.0001907019028514585</v>
+      </c>
+      <c r="T21">
+        <v>0.0001630561194814802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2780776666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.834233</v>
+      </c>
+      <c r="I22">
+        <v>0.01080932444478865</v>
+      </c>
+      <c r="J22">
+        <v>0.01106723160822775</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>70.2375145</v>
+      </c>
+      <c r="N22">
+        <v>140.475029</v>
+      </c>
+      <c r="O22">
+        <v>0.5875234044920492</v>
+      </c>
+      <c r="P22">
+        <v>0.4906443493732269</v>
+      </c>
+      <c r="Q22">
+        <v>19.53148414462617</v>
+      </c>
+      <c r="R22">
+        <v>117.188904867757</v>
+      </c>
+      <c r="S22">
+        <v>0.006350731098061354</v>
+      </c>
+      <c r="T22">
+        <v>0.005430074651781718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2780776666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.834233</v>
+      </c>
+      <c r="I23">
+        <v>0.01080932444478865</v>
+      </c>
+      <c r="J23">
+        <v>0.01106723160822775</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N23">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P23">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q23">
+        <v>0.7799524248517777</v>
+      </c>
+      <c r="R23">
+        <v>7.019571823665999</v>
+      </c>
+      <c r="S23">
+        <v>0.0002536042874589935</v>
+      </c>
+      <c r="T23">
+        <v>0.0003252594524120111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2780776666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.834233</v>
+      </c>
+      <c r="I24">
+        <v>0.01080932444478865</v>
+      </c>
+      <c r="J24">
+        <v>0.01106723160822775</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.318823</v>
+      </c>
+      <c r="O24">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P24">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q24">
+        <v>0.02955251863988889</v>
+      </c>
+      <c r="R24">
+        <v>0.265972667759</v>
+      </c>
+      <c r="S24">
+        <v>9.609105880672052E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.232413122125074E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2780776666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.834233</v>
+      </c>
+      <c r="I25">
+        <v>0.01080932444478865</v>
+      </c>
+      <c r="J25">
+        <v>0.01106723160822775</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N25">
+        <v>132.89777</v>
+      </c>
+      <c r="O25">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P25">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q25">
+        <v>12.31863392893445</v>
+      </c>
+      <c r="R25">
+        <v>110.86770536041</v>
+      </c>
+      <c r="S25">
+        <v>0.004005447358676136</v>
+      </c>
+      <c r="T25">
+        <v>0.005137175035965409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2780776666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.834233</v>
+      </c>
+      <c r="I26">
+        <v>0.01080932444478865</v>
+      </c>
+      <c r="J26">
+        <v>0.01106723160822775</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.1006075</v>
+      </c>
+      <c r="N26">
+        <v>4.201215</v>
+      </c>
+      <c r="O26">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P26">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q26">
+        <v>0.5841320321825001</v>
+      </c>
+      <c r="R26">
+        <v>3.504792193095</v>
+      </c>
+      <c r="S26">
+        <v>0.0001899325947114902</v>
+      </c>
+      <c r="T26">
+        <v>0.0001623983368473633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.0450195</v>
+      </c>
+      <c r="H27">
+        <v>2.090039</v>
+      </c>
+      <c r="I27">
+        <v>0.04062158231560298</v>
+      </c>
+      <c r="J27">
+        <v>0.02772720053417777</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>70.2375145</v>
+      </c>
+      <c r="N27">
+        <v>140.475029</v>
+      </c>
+      <c r="O27">
+        <v>0.5875234044920492</v>
+      </c>
+      <c r="P27">
+        <v>0.4906443493732269</v>
+      </c>
+      <c r="Q27">
+        <v>73.39957228403276</v>
+      </c>
+      <c r="R27">
+        <v>293.598289136131</v>
+      </c>
+      <c r="S27">
+        <v>0.02386613033791709</v>
+      </c>
+      <c r="T27">
+        <v>0.01360419426603264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.0450195</v>
+      </c>
+      <c r="H28">
+        <v>2.090039</v>
+      </c>
+      <c r="I28">
+        <v>0.04062158231560298</v>
+      </c>
+      <c r="J28">
+        <v>0.02772720053417777</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N28">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.02346162230159168</v>
+      </c>
+      <c r="P28">
+        <v>0.02938941407625393</v>
+      </c>
+      <c r="Q28">
+        <v>2.931071390279667</v>
+      </c>
+      <c r="R28">
+        <v>17.586428341678</v>
+      </c>
+      <c r="S28">
+        <v>0.0009530482215816933</v>
+      </c>
+      <c r="T28">
+        <v>0.0008148861776742797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.0450195</v>
+      </c>
+      <c r="H29">
+        <v>2.090039</v>
+      </c>
+      <c r="I29">
+        <v>0.04062158231560298</v>
+      </c>
+      <c r="J29">
+        <v>0.02772720053417777</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1062743333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.318823</v>
+      </c>
+      <c r="O29">
+        <v>0.0008889645166775211</v>
+      </c>
+      <c r="P29">
+        <v>0.001113569468636453</v>
+      </c>
+      <c r="Q29">
+        <v>0.1110587506828333</v>
+      </c>
+      <c r="R29">
+        <v>0.6663525040970001</v>
+      </c>
+      <c r="S29">
+        <v>3.611114528986614E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.087616396562072E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.0450195</v>
+      </c>
+      <c r="H30">
+        <v>2.090039</v>
+      </c>
+      <c r="I30">
+        <v>0.04062158231560298</v>
+      </c>
+      <c r="J30">
+        <v>0.02772720053417777</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>44.29925666666667</v>
+      </c>
+      <c r="N30">
+        <v>132.89777</v>
+      </c>
+      <c r="O30">
+        <v>0.3705548278372964</v>
+      </c>
+      <c r="P30">
+        <v>0.4641788676534301</v>
+      </c>
+      <c r="Q30">
+        <v>46.29358705217167</v>
+      </c>
+      <c r="R30">
+        <v>277.76152231303</v>
+      </c>
+      <c r="S30">
+        <v>0.01505252344143683</v>
+      </c>
+      <c r="T30">
+        <v>0.01287038054715422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.0450195</v>
+      </c>
+      <c r="H31">
+        <v>2.090039</v>
+      </c>
+      <c r="I31">
+        <v>0.04062158231560298</v>
+      </c>
+      <c r="J31">
+        <v>0.02772720053417777</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1006075</v>
+      </c>
+      <c r="N31">
+        <v>4.201215</v>
+      </c>
+      <c r="O31">
+        <v>0.01757118085238527</v>
+      </c>
+      <c r="P31">
+        <v>0.01467379942845245</v>
+      </c>
+      <c r="Q31">
+        <v>2.19517579934625</v>
+      </c>
+      <c r="R31">
+        <v>8.780703197385</v>
+      </c>
+      <c r="S31">
+        <v>0.0007137691693775151</v>
+      </c>
+      <c r="T31">
+        <v>0.0004068633793510044</v>
       </c>
     </row>
   </sheetData>
